--- a/1-Inference/Hypothesis Thesis/ab_test.xlsx
+++ b/1-Inference/Hypothesis Thesis/ab_test.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25915"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="20835" windowHeight="10260" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="pvalue versus sample size" sheetId="1" r:id="rId1"/>
     <sheet name="mean" sheetId="2" r:id="rId2"/>
     <sheet name="proportion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,12 +147,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +234,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -237,7 +242,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -249,17 +254,17 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -285,7 +290,25 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,24 +321,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,7 +342,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -346,26 +361,51 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="0" i="1">
+                <a:latin typeface="Athelas Regular"/>
+                <a:cs typeface="Athelas Regular"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="0" i="1">
+                <a:latin typeface="Athelas Regular"/>
+                <a:cs typeface="Athelas Regular"/>
+              </a:rPr>
               <a:t>P-value for n1=100</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="0" i="1" baseline="0">
+                <a:latin typeface="Athelas Regular"/>
+                <a:cs typeface="Athelas Regular"/>
+              </a:rPr>
               <a:t> and p1=25% and p2=40%</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="0" i="1">
+              <a:latin typeface="Athelas Regular"/>
+              <a:cs typeface="Athelas Regular"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0533438925321655"/>
+          <c:y val="0.225742574257426"/>
+          <c:w val="0.85172415984025"/>
+          <c:h val="0.628977157558275"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -390,6 +430,24 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'pvalue versus sample size'!$B$2:$B$20</c:f>
@@ -397,61 +455,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,65 +521,66 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.35107570295550272</c:v>
+                  <c:v>0.351075702955503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26188948766609754</c:v>
+                  <c:v>0.261889487666097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20286582377474915</c:v>
+                  <c:v>0.202865823774749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16142946236708333</c:v>
+                  <c:v>0.161429462367083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13118029537394293</c:v>
+                  <c:v>0.131180295373943</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10844842169579061</c:v>
+                  <c:v>0.108448421695791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.0968947975357484E-2</c:v>
+                  <c:v>0.0909689479753577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7270972431955798E-2</c:v>
+                  <c:v>0.0772709724319553</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6362066456708391E-2</c:v>
+                  <c:v>0.0663620664567088</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7552140146367226E-2</c:v>
+                  <c:v>0.0575521401463672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0349323748162922E-2</c:v>
+                  <c:v>0.0503493237481631</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4395640609356857E-2</c:v>
+                  <c:v>0.0443956406093568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9425832629442992E-2</c:v>
+                  <c:v>0.039425832629443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5240223824274386E-2</c:v>
+                  <c:v>0.0352402238242746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1686388539793775E-2</c:v>
+                  <c:v>0.0316863885397938</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8646501102519206E-2</c:v>
+                  <c:v>0.028646501102519</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.602844189393072E-2</c:v>
+                  <c:v>0.0260284418939309</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3759440241766239E-2</c:v>
+                  <c:v>0.0237594402417658</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1781462791119255E-2</c:v>
+                  <c:v>0.0217814627911195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -620,7 +679,13 @@
               <c:idx val="18"/>
               <c:delete val="1"/>
             </c:dLbl>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -629,61 +694,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,77 +760,90 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.17553785147775136</c:v>
+                  <c:v>0.175537851477751</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13094474383304877</c:v>
+                  <c:v>0.130944743833049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10143291188737458</c:v>
+                  <c:v>0.101432911887374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0714731183541666E-2</c:v>
+                  <c:v>0.0807147311835415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5590147686971467E-2</c:v>
+                  <c:v>0.0655901476869713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4224210847895304E-2</c:v>
+                  <c:v>0.0542242108478954</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5484473987678742E-2</c:v>
+                  <c:v>0.0454844739876788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8635486215977899E-2</c:v>
+                  <c:v>0.0386354862159777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3181033228354195E-2</c:v>
+                  <c:v>0.0331810332283544</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8776070073183613E-2</c:v>
+                  <c:v>0.0287760700731836</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5174661874081461E-2</c:v>
+                  <c:v>0.0251746618740816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2197820304678428E-2</c:v>
+                  <c:v>0.0221978203046784</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9712916314721496E-2</c:v>
+                  <c:v>0.0197129163147215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7620111912137193E-2</c:v>
+                  <c:v>0.0176201119121373</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5843194269896888E-2</c:v>
+                  <c:v>0.0158431942698969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4323250551259603E-2</c:v>
+                  <c:v>0.0143232505512595</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.301422094696536E-2</c:v>
+                  <c:v>0.0130142209469655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1879720120883119E-2</c:v>
+                  <c:v>0.0118797201208829</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0890731395559627E-2</c:v>
+                  <c:v>0.0108907313955597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="189304832"/>
-        <c:axId val="189306368"/>
+        <c:smooth val="0"/>
+        <c:axId val="2133272568"/>
+        <c:axId val="2138008312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189304832"/>
+        <c:axId val="2133272568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-5400000" vert="horz"/>
@@ -777,36 +855,51 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189306368"/>
+        <c:crossAx val="2138008312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189306368"/>
+        <c:axId val="2138008312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189304832"/>
+        <c:crossAx val="2133272568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.910831741133223"/>
+          <c:y val="0.238698448585016"/>
+          <c:w val="0.079946356849486"/>
+          <c:h val="0.441414984018087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1131,21 +1224,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1199,11 +1292,11 @@
       </c>
       <c r="D3" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C3)^(0.5))))</f>
-        <v>0.13094474383304877</v>
+        <v>0.13094474383304866</v>
       </c>
       <c r="E3" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C3)^(0.5))))*2</f>
-        <v>0.26188948766609754</v>
+        <v>0.26188948766609732</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1220,11 +1313,11 @@
       </c>
       <c r="D4" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C4)^(0.5))))</f>
-        <v>0.10143291188737458</v>
+        <v>0.10143291188737447</v>
       </c>
       <c r="E4" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C4)^(0.5))))*2</f>
-        <v>0.20286582377474915</v>
+        <v>0.20286582377474893</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1241,11 +1334,11 @@
       </c>
       <c r="D5" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C5)^(0.5))))</f>
-        <v>8.0714731183541666E-2</v>
+        <v>8.0714731183541555E-2</v>
       </c>
       <c r="E5" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C5)^(0.5))))*2</f>
-        <v>0.16142946236708333</v>
+        <v>0.16142946236708311</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1262,11 +1355,11 @@
       </c>
       <c r="D6" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C6)^(0.5))))</f>
-        <v>6.5590147686971467E-2</v>
+        <v>6.5590147686971356E-2</v>
       </c>
       <c r="E6" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C6)^(0.5))))*2</f>
-        <v>0.13118029537394293</v>
+        <v>0.13118029537394271</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1283,11 +1376,11 @@
       </c>
       <c r="D7" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C7)^(0.5))))</f>
-        <v>5.4224210847895304E-2</v>
+        <v>5.4224210847895415E-2</v>
       </c>
       <c r="E7" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C7)^(0.5))))*2</f>
-        <v>0.10844842169579061</v>
+        <v>0.10844842169579083</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1304,11 +1397,11 @@
       </c>
       <c r="D8" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C8)^(0.5))))</f>
-        <v>4.5484473987678742E-2</v>
+        <v>4.5484473987678853E-2</v>
       </c>
       <c r="E8" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C8)^(0.5))))*2</f>
-        <v>9.0968947975357484E-2</v>
+        <v>9.0968947975357706E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1325,11 +1418,11 @@
       </c>
       <c r="D9" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C9)^(0.5))))</f>
-        <v>3.8635486215977899E-2</v>
+        <v>3.8635486215977677E-2</v>
       </c>
       <c r="E9" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C9)^(0.5))))*2</f>
-        <v>7.7270972431955798E-2</v>
+        <v>7.7270972431955354E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1346,11 +1439,11 @@
       </c>
       <c r="D10" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C10)^(0.5))))</f>
-        <v>3.3181033228354195E-2</v>
+        <v>3.3181033228354417E-2</v>
       </c>
       <c r="E10" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C10)^(0.5))))*2</f>
-        <v>6.6362066456708391E-2</v>
+        <v>6.6362066456708835E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1388,11 +1481,11 @@
       </c>
       <c r="D12" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C12)^(0.5))))</f>
-        <v>2.5174661874081461E-2</v>
+        <v>2.5174661874081572E-2</v>
       </c>
       <c r="E12" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C12)^(0.5))))*2</f>
-        <v>5.0349323748162922E-2</v>
+        <v>5.0349323748163144E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1451,11 +1544,11 @@
       </c>
       <c r="D15" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C15)^(0.5))))</f>
-        <v>1.7620111912137193E-2</v>
+        <v>1.7620111912137304E-2</v>
       </c>
       <c r="E15" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C15)^(0.5))))*2</f>
-        <v>3.5240223824274386E-2</v>
+        <v>3.5240223824274608E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1493,11 +1586,11 @@
       </c>
       <c r="D17" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C17)^(0.5))))</f>
-        <v>1.4323250551259603E-2</v>
+        <v>1.4323250551259492E-2</v>
       </c>
       <c r="E17" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C17)^(0.5))))*2</f>
-        <v>2.8646501102519206E-2</v>
+        <v>2.8646501102518984E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1514,11 +1607,11 @@
       </c>
       <c r="D18" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C18)^(0.5))))</f>
-        <v>1.301422094696536E-2</v>
+        <v>1.3014220946965471E-2</v>
       </c>
       <c r="E18" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C18)^(0.5))))*2</f>
-        <v>2.602844189393072E-2</v>
+        <v>2.6028441893930943E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1535,11 +1628,11 @@
       </c>
       <c r="D19" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C19)^(0.5))))</f>
-        <v>1.1879720120883119E-2</v>
+        <v>1.1879720120882897E-2</v>
       </c>
       <c r="E19" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C19)^(0.5))))*2</f>
-        <v>2.3759440241766239E-2</v>
+        <v>2.3759440241765795E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1556,11 +1649,11 @@
       </c>
       <c r="D20" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C20)^(0.5))))</f>
-        <v>1.0890731395559627E-2</v>
+        <v>1.0890731395559738E-2</v>
       </c>
       <c r="E20" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C20)^(0.5))))*2</f>
-        <v>2.1781462791119255E-2</v>
+        <v>2.1781462791119477E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1577,11 +1670,11 @@
       </c>
       <c r="D21" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C21)^(0.5))))</f>
-        <v>1.002391151883919E-2</v>
+        <v>1.0023911518838968E-2</v>
       </c>
       <c r="E21" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C21)^(0.5))))*2</f>
-        <v>2.0047823037678381E-2</v>
+        <v>2.0047823037677936E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1598,11 +1691,11 @@
       </c>
       <c r="D22" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C22)^(0.5))))</f>
-        <v>9.2603290533133098E-3</v>
+        <v>9.2603290533131988E-3</v>
       </c>
       <c r="E22" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C22)^(0.5))))*2</f>
-        <v>1.852065810662662E-2</v>
+        <v>1.8520658106626398E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1640,11 +1733,11 @@
       </c>
       <c r="D24" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C24)^(0.5))))</f>
-        <v>7.9837405630283076E-3</v>
+        <v>7.9837405630284186E-3</v>
       </c>
       <c r="E24" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C24)^(0.5))))*2</f>
-        <v>1.5967481126056615E-2</v>
+        <v>1.5967481126056837E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1682,11 +1775,11 @@
       </c>
       <c r="D26" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C26)^(0.5))))</f>
-        <v>6.9668991795219792E-3</v>
+        <v>6.9668991795220903E-3</v>
       </c>
       <c r="E26" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C26)^(0.5))))*2</f>
-        <v>1.3933798359043958E-2</v>
+        <v>1.3933798359044181E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1703,11 +1796,11 @@
       </c>
       <c r="D27" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C27)^(0.5))))</f>
-        <v>6.5346840776658865E-3</v>
+        <v>6.5346840776657755E-3</v>
       </c>
       <c r="E27" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C27)^(0.5))))*2</f>
-        <v>1.3069368155331773E-2</v>
+        <v>1.3069368155331551E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1724,11 +1817,11 @@
       </c>
       <c r="D28" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C28)^(0.5))))</f>
-        <v>6.1446137639205034E-3</v>
+        <v>6.1446137639202814E-3</v>
       </c>
       <c r="E28" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C28)^(0.5))))*2</f>
-        <v>1.2289227527841007E-2</v>
+        <v>1.2289227527840563E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1745,11 +1838,11 @@
       </c>
       <c r="D29" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C29)^(0.5))))</f>
-        <v>5.7914330295929517E-3</v>
+        <v>5.7914330295930627E-3</v>
       </c>
       <c r="E29" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C29)^(0.5))))*2</f>
-        <v>1.1582866059185903E-2</v>
+        <v>1.1582866059186125E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1766,11 +1859,11 @@
       </c>
       <c r="D30" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C30)^(0.5))))</f>
-        <v>5.4706692718975436E-3</v>
+        <v>5.4706692718977656E-3</v>
       </c>
       <c r="E30" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C30)^(0.5))))*2</f>
-        <v>1.0941338543795087E-2</v>
+        <v>1.0941338543795531E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1787,11 +1880,11 @@
       </c>
       <c r="D31" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C31)^(0.5))))</f>
-        <v>5.1784985333027667E-3</v>
+        <v>5.1784985333026556E-3</v>
       </c>
       <c r="E31" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C31)^(0.5))))*2</f>
-        <v>1.0356997066605533E-2</v>
+        <v>1.0356997066605311E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1829,11 +1922,11 @@
       </c>
       <c r="D33" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C33)^(0.5))))</f>
-        <v>4.667254296802259E-3</v>
+        <v>4.66725429680237E-3</v>
       </c>
       <c r="E33" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C33)^(0.5))))*2</f>
-        <v>9.334508593604518E-3</v>
+        <v>9.3345085936047401E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1850,11 +1943,11 @@
       </c>
       <c r="D34" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C34)^(0.5))))</f>
-        <v>4.4428990621627751E-3</v>
+        <v>4.4428990621628861E-3</v>
       </c>
       <c r="E34" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C34)^(0.5))))*2</f>
-        <v>8.8857981243255502E-3</v>
+        <v>8.8857981243257722E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1871,11 +1964,11 @@
       </c>
       <c r="D35" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C35)^(0.5))))</f>
-        <v>4.2364424389520483E-3</v>
+        <v>4.2364424389522704E-3</v>
       </c>
       <c r="E35" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C35)^(0.5))))*2</f>
-        <v>8.4728848779040966E-3</v>
+        <v>8.4728848779045407E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1892,11 +1985,11 @@
       </c>
       <c r="D36" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C36)^(0.5))))</f>
-        <v>4.0460280667802273E-3</v>
+        <v>4.0460280667803383E-3</v>
       </c>
       <c r="E36" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C36)^(0.5))))*2</f>
-        <v>8.0920561335604546E-3</v>
+        <v>8.0920561335606767E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1913,11 +2006,11 @@
       </c>
       <c r="D37" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C37)^(0.5))))</f>
-        <v>3.8700319165084762E-3</v>
+        <v>3.8700319165085872E-3</v>
       </c>
       <c r="E37" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C37)^(0.5))))*2</f>
-        <v>7.7400638330169524E-3</v>
+        <v>7.7400638330171745E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1997,11 +2090,11 @@
       </c>
       <c r="D41" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C41)^(0.5))))</f>
-        <v>3.2841413420838794E-3</v>
+        <v>3.2841413420837684E-3</v>
       </c>
       <c r="E41" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C41)^(0.5))))*2</f>
-        <v>6.5682826841677588E-3</v>
+        <v>6.5682826841675368E-3</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2039,11 +2132,11 @@
       </c>
       <c r="D43" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C43)^(0.5))))</f>
-        <v>3.0477255128791292E-3</v>
+        <v>3.0477255128793512E-3</v>
       </c>
       <c r="E43" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C43)^(0.5))))*2</f>
-        <v>6.0954510257582584E-3</v>
+        <v>6.0954510257587025E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2060,11 +2153,11 @@
       </c>
       <c r="D44" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C44)^(0.5))))</f>
-        <v>2.9408286648667792E-3</v>
+        <v>2.9408286648670012E-3</v>
       </c>
       <c r="E44" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C44)^(0.5))))*2</f>
-        <v>5.8816573297335584E-3</v>
+        <v>5.8816573297340025E-3</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2081,11 +2174,11 @@
       </c>
       <c r="D45" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C45)^(0.5))))</f>
-        <v>2.8406226989784455E-3</v>
+        <v>2.8406226989785566E-3</v>
       </c>
       <c r="E45" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C45)^(0.5))))*2</f>
-        <v>5.6812453979568911E-3</v>
+        <v>5.6812453979571131E-3</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2144,11 +2237,11 @@
       </c>
       <c r="D48" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C48)^(0.5))))</f>
-        <v>2.574873383203391E-3</v>
+        <v>2.57487338320328E-3</v>
       </c>
       <c r="E48" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C48)^(0.5))))*2</f>
-        <v>5.149746766406782E-3</v>
+        <v>5.1497467664065599E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2207,11 +2300,11 @@
       </c>
       <c r="D51" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C51)^(0.5))))</f>
-        <v>2.3523973947346954E-3</v>
+        <v>2.3523973947349175E-3</v>
       </c>
       <c r="E51" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C51)^(0.5))))*2</f>
-        <v>4.7047947894693909E-3</v>
+        <v>4.704794789469835E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2228,11 +2321,11 @@
       </c>
       <c r="D52" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C52)^(0.5))))</f>
-        <v>2.2862149688673838E-3</v>
+        <v>2.2862149688672728E-3</v>
       </c>
       <c r="E52" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C52)^(0.5))))*2</f>
-        <v>4.5724299377347677E-3</v>
+        <v>4.5724299377345456E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2249,134 +2342,139 @@
       </c>
       <c r="D53" s="11">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C53)^(0.5))))</f>
-        <v>2.2235405116790563E-3</v>
+        <v>2.2235405116791673E-3</v>
       </c>
       <c r="E53" s="7">
         <f>(1-NORMSDIST(ABS((proportion!$C$4-proportion!$F$4)/(C53)^(0.5))))*2</f>
-        <v>4.4470810233581126E-3</v>
+        <v>4.4470810233583347E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="8">
         <v>16.963329999999999</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="6">
         <v>20.663329999999998</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="1">
         <f>C4-F4</f>
         <v>-3.6999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="8">
         <v>8.2660289999999996</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="3">
         <v>6.6055609999999998</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="10">
         <f>(C5^2/C6+F5^2/F6)^0.5</f>
         <v>1.9318442962927247</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3">
         <v>30</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="3">
         <v>30</v>
       </c>
@@ -2389,10 +2487,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <f>ABS(I4/I5)</f>
         <v>1.9152682268961458</v>
@@ -2405,13 +2503,13 @@
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="7">
         <f>TDIST(I7,55.309,2)</f>
-        <v>6.0663760576458947E-2</v>
+        <v>6.0663764420634654E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2424,6 +2522,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
@@ -2431,56 +2535,55 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -2497,25 +2600,25 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9" ht="15" thickTop="1">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9">
         <v>0.25</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="13">
         <v>0.4</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="11">
         <f>C4-F4</f>
         <v>-0.15000000000000002</v>
@@ -2539,7 +2642,7 @@
       <c r="G5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="10">
         <f>(C5+F5)^(0.5)</f>
         <v>4.6233105022267316E-2</v>
@@ -2552,27 +2655,27 @@
       <c r="C6" s="1">
         <v>200</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="3">
         <v>200</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="10">
         <v>55.308999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="F7" s="3"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10">
         <f>ABS(I4/I5)</f>
         <v>3.2444284226152518</v>
@@ -2580,13 +2683,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="F8" s="3"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="7">
         <f>TDIST(I7,55.309,2)</f>
-        <v>2.004244121459962E-3</v>
+        <v>2.0042441472010626E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2604,5 +2707,10 @@
     <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>